--- a/data_exports/enrollments_cleaned_1987936.xlsx
+++ b/data_exports/enrollments_cleaned_1987936.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q154"/>
+  <dimension ref="A1:Q155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45899.14733796296</v>
+        <v>45984.86408564815</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3563888888888889</v>
+        <v>3.603888888888889</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -606,18 +606,26 @@
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>50.06</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>33.97</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>57.98</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>48.44</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
@@ -637,13 +645,13 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45902.84815972222</v>
+        <v>45988.78458333333</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.161388888888889</v>
+        <v>6.394444444444445</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -661,18 +669,26 @@
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>97.20</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
+          <t>70.58</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>76.88</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
@@ -692,13 +708,13 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45898.78287037037</v>
+        <v>45979.80125</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7761111111111111</v>
+        <v>6.911666666666667</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -718,24 +734,24 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>98.62</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>73.44</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>98.85</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>88.44</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
@@ -755,13 +771,13 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45902.22327546297</v>
+        <v>45984.98988425926</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>1.260555555555556</v>
+        <v>5.440277777777778</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -779,18 +795,26 @@
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>56.33</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>82.76</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>71.33</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
@@ -810,13 +834,13 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45897.54211805556</v>
+        <v>45943.3149537037</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.709722222222222</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -834,18 +858,26 @@
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>28.40</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>18.69</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
@@ -865,13 +897,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45902.86274305556</v>
+        <v>45985.90967592593</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5647222222222222</v>
+        <v>4.650555555555556</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -889,18 +921,26 @@
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>97.51</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
+          <t>68.68</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>76.26</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -920,13 +960,13 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45902.81395833333</v>
+        <v>45985.84392361111</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>6.14</v>
+        <v>19.02666666666667</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -946,24 +986,24 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>98.58</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>71.95</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>91.70</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>80.40</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
@@ -983,13 +1023,13 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45902.82054398148</v>
+        <v>45985.74425925926</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9350000000000001</v>
+        <v>6.679722222222222</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1009,24 +1049,24 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>98.73</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>73.52</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>83.43</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
@@ -1046,13 +1086,13 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45902.08993055556</v>
+        <v>45985.56815972222</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3366666666666667</v>
+        <v>3.320277777777778</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1070,18 +1110,26 @@
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>80.48</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
+          <t>57.25</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>70.07</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>60.16</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
@@ -1101,13 +1149,13 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45902.72586805555</v>
+        <v>45986.20835648148</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6036111111111111</v>
+        <v>4.941111111111111</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1125,18 +1173,26 @@
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
+          <t>65.08</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>80.08</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
@@ -1156,13 +1212,13 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45902.77442129629</v>
+        <v>45987.82581018518</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5141666666666667</v>
+        <v>14.12333333333333</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1180,18 +1236,26 @@
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
+          <t>63.06</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>77.53</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
@@ -1211,13 +1275,13 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45902.04533564814</v>
+        <v>45985.02517361111</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8919444444444444</v>
+        <v>5.639722222222222</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1235,18 +1299,26 @@
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
+          <t>70.61</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>80.52</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
@@ -1266,13 +1338,13 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45902.49112268518</v>
+        <v>45986.56704861111</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>1.261111111111111</v>
+        <v>3.649444444444444</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1290,18 +1362,26 @@
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
+          <t>53.41</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>68.41</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
@@ -1321,13 +1401,13 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45899.02916666667</v>
+        <v>45957.7929050926</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8688888888888889</v>
+        <v>1.073888888888889</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1345,18 +1425,26 @@
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>11.91</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
@@ -1376,13 +1464,13 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45902.68586805555</v>
+        <v>45987.89827546296</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8469444444444445</v>
+        <v>7.917222222222223</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1400,18 +1488,26 @@
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>57.13</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
+          <t>40.21</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>56.48</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>48.21</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
@@ -1431,13 +1527,13 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45902.81171296296</v>
+        <v>45986.96605324074</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6969444444444445</v>
+        <v>3.908055555555555</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1457,24 +1553,24 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>81.38</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>57.78</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>84.42</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>72.78</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
@@ -1494,13 +1590,13 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45902.70278935185</v>
+        <v>45985.13584490741</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>1.264444444444444</v>
+        <v>5.784444444444444</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1518,18 +1614,26 @@
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>97.09</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
+          <t>69.37</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>84.37</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
@@ -1549,13 +1653,13 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45902.76094907407</v>
+        <v>45986.9807175926</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>2.102777777777778</v>
+        <v>10.01055555555556</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1575,24 +1679,24 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>95.27</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>71.86</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>85.81</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
@@ -1612,13 +1716,13 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45902.85940972222</v>
+        <v>45987.98712962963</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.730833333333333</v>
+        <v>12.18027777777778</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1636,18 +1740,26 @@
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
+          <t>61.75</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>75.70</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
@@ -1667,13 +1779,13 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45902.80791666666</v>
+        <v>45986.73972222222</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8886111111111111</v>
+        <v>6.790277777777778</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1693,24 +1805,24 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>93.13</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>69.21</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>94.25</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>84.21</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
@@ -1730,13 +1842,13 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45902.71575231481</v>
+        <v>45985.99275462963</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>0.235</v>
+        <v>8.226944444444445</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1754,18 +1866,26 @@
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
+          <t>62.24</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>70.24</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
@@ -1785,13 +1905,13 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45901.62119212963</v>
+        <v>45988.88652777778</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3630555555555556</v>
+        <v>5.770833333333333</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1809,18 +1929,26 @@
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+          <t>62.57</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>76.87</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr"/>
@@ -1840,13 +1968,13 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45902.7694212963</v>
+        <v>45984.84744212963</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>1.879444444444444</v>
+        <v>5.398888888888889</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1866,24 +1994,24 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>81.95</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>57.19</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>83.84</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>71.14</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
@@ -1903,13 +2031,13 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45902.69440972222</v>
+        <v>45985.25453703704</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>1.133888888888889</v>
+        <v>7.411111111111111</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1929,24 +2057,24 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>66.76</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>93.82</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>81.06</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
@@ -1966,13 +2094,13 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45902.77755787037</v>
+        <v>45987.70847222222</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4825</v>
+        <v>6.2625</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1992,24 +2120,24 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>66.55</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>95.04</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>81.55</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
@@ -2029,13 +2157,13 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45902.76479166667</v>
+        <v>45987.13473379629</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7680555555555556</v>
+        <v>12.53555555555556</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2053,18 +2181,26 @@
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>85.75</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
@@ -2084,13 +2220,13 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45902.78826388889</v>
+        <v>45984.97349537037</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>0.04916666666666666</v>
+        <v>2.6925</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2108,18 +2244,26 @@
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
+          <t>59.13</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>71.24</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
@@ -2139,13 +2283,13 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45902.83135416666</v>
+        <v>45986.87460648148</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4238888888888889</v>
+        <v>1.563055555555556</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2163,18 +2307,26 @@
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
+          <t>58.85</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>66.85</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
@@ -2194,13 +2346,13 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45902.62136574074</v>
+        <v>45988.57503472222</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7847222222222222</v>
+        <v>20.91194444444444</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2218,18 +2370,26 @@
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
+          <t>65.11</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>79.58</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
@@ -2249,13 +2409,13 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45902.70542824074</v>
+        <v>45988.93568287037</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.308611111111111</v>
+        <v>19.65111111111111</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2273,18 +2433,26 @@
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
+          <t>61.89</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>76.36</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
@@ -2304,13 +2472,13 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45902.62810185185</v>
+        <v>45986.11305555556</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>1.259722222222222</v>
+        <v>7.657222222222222</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2328,18 +2496,26 @@
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>87.96</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
@@ -2359,13 +2535,13 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45902.76826388889</v>
+        <v>45988.17747685185</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6991666666666667</v>
+        <v>5.102222222222222</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2383,18 +2559,26 @@
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
+          <t>56.03</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>74.47</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>64.03</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
@@ -2414,13 +2598,13 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45902.09978009259</v>
+        <v>45986.65935185185</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>1.505</v>
+        <v>8.139166666666666</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2440,24 +2624,24 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>97.39</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>72.49</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>97.05</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>86.79</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
@@ -2477,13 +2661,13 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45902.74768518518</v>
+        <v>45984.95894675926</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9052777777777777</v>
+        <v>19.49111111111111</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2501,18 +2685,26 @@
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
+          <t>56.51</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>69.41</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
@@ -2532,13 +2724,13 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45901.90230324074</v>
+        <v>45985.11865740741</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3966666666666667</v>
+        <v>5.7625</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2556,18 +2748,26 @@
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>79.81</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
@@ -2587,13 +2787,13 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45902.62857638889</v>
+        <v>45988.00916666666</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4177777777777778</v>
+        <v>4.282222222222222</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2611,18 +2811,26 @@
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
+          <t>64.21</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>76.16</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
@@ -2642,13 +2850,13 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45902.72877314815</v>
+        <v>45986.73087962963</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>1.764444444444444</v>
+        <v>8.606111111111112</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2668,24 +2876,24 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>97.97</t>
         </is>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>70.56</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>95.55</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>83.02</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr"/>
@@ -2705,13 +2913,13 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45902.72421296296</v>
+        <v>45985.89807870371</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6816666666666666</v>
+        <v>2.99</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2729,18 +2937,26 @@
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>77.13</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
+          <t>54.81</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>67.88</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
@@ -2760,13 +2976,13 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45902.09952546296</v>
+        <v>45987.93905092592</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.128888888888889</v>
+        <v>12.36111111111111</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2786,24 +3002,24 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>97.50</t>
         </is>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>73.58</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>97.15</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>87.88</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
@@ -2823,13 +3039,13 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45902.70793981481</v>
+        <v>45985.68584490741</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>0.455</v>
+        <v>4.236388888888889</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2849,24 +3065,24 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>69.89</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>48.92</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>75.20</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>63.92</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
@@ -2886,13 +3102,13 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45902.7765625</v>
+        <v>45988.24356481482</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.430833333333333</v>
+        <v>10.46194444444444</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2910,18 +3126,26 @@
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>86.54</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
@@ -2941,13 +3165,13 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45902.69515046296</v>
+        <v>45985.64679398148</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F44" t="n">
-        <v>1.224166666666667</v>
+        <v>8.48</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2967,24 +3191,24 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>96.75</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>73.00</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>97.28</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>88.00</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
@@ -3004,13 +3228,13 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45902.57295138889</v>
+        <v>45987.98689814815</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1586111111111111</v>
+        <v>1.626666666666667</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3028,25 +3252,33 @@
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
+          <t>53.10</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>61.10</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5445833</v>
+        <v>5440795</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3059,13 +3291,13 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45901.99572916667</v>
+        <v>45985.8853125</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6233333333333333</v>
+        <v>3.748055555555556</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3074,34 +3306,42 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>U63391870</t>
+          <t>U98509196</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>76.95</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5440795</v>
+        <v>5444111</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3114,13 +3354,13 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45901.96894675926</v>
+        <v>45988.91640046296</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1.123888888888889</v>
+        <v>6.631111111111111</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -3134,29 +3374,37 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>U98509196</t>
+          <t>U37930574</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
+          <t>64.02</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>76.75</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5444111</v>
+        <v>5458181</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3169,13 +3417,13 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45902.85895833333</v>
+        <v>45985.75474537037</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>1.302222222222222</v>
+        <v>7.021388888888889</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -3184,34 +3432,42 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>U37930574</t>
+          <t>U65986354</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
+          <t>71.78</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>84.25</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5458181</v>
+        <v>5453803</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3224,13 +3480,13 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45902.86751157408</v>
+        <v>45988.94684027778</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1408333333333333</v>
+        <v>5.355277777777777</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3244,29 +3500,37 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>U65986354</t>
+          <t>U61292851</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>97.30</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
+          <t>70.96</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>83.08</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5453803</v>
+        <v>5489911</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3279,13 +3543,13 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45901.89425925926</v>
+        <v>45982.88636574074</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2644444444444444</v>
+        <v>7.165</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3294,42 +3558,42 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>U61292851</t>
+          <t>U85520261</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>98.28</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>73.17</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>97.80</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>87.47</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5489911</v>
+        <v>5461249</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3342,13 +3606,13 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45902.71456018519</v>
+        <v>45985.83842592593</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>1.490277777777778</v>
+        <v>6.025555555555556</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3357,42 +3621,42 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>U85520261</t>
+          <t>U76849954</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>73.74</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>52.33</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>77.42</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>66.63</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5461249</v>
+        <v>5468075</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3405,13 +3669,13 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45900.77054398148</v>
+        <v>45985.9343287037</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3555555555555556</v>
+        <v>8.525</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3425,29 +3689,37 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>U76849954</t>
+          <t>U46282392</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>95.79</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
+          <t>68.87</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>83.87</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5468075</v>
+        <v>5437359</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3460,13 +3732,13 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45902.68805555555</v>
+        <v>45987.67664351852</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>1.235</v>
+        <v>6.994444444444444</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3475,34 +3747,42 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>U46282392</t>
+          <t>U10315466</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
+          <t>65.60</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>79.10</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5437359</v>
+        <v>5432275</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3515,13 +3795,13 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45902.61715277778</v>
+        <v>45987.9325462963</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9722222222222222</v>
+        <v>12.01833333333333</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3530,34 +3810,42 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>U10315466</t>
+          <t>U98755759</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
+          <t>68.78</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5432275</v>
+        <v>5423629</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3570,13 +3858,13 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45902.79599537037</v>
+        <v>45984.89284722223</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
-        <v>3.980277777777778</v>
+        <v>7.519166666666667</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3585,34 +3873,42 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>U98755759</t>
+          <t>U46965640</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
+          <t>62.94</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>77.15</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5423629</v>
+        <v>5505653</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3625,13 +3921,13 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45901.64900462963</v>
+        <v>45985.1709375</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2311111111111111</v>
+        <v>3.876666666666666</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3645,37 +3941,37 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>U46965640</t>
+          <t>U53036315</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>98.33</t>
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>70.28</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>97.71</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>84.49</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5505653</v>
+        <v>5419043</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3688,13 +3984,13 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45902.80940972222</v>
+        <v>45985.0178125</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5555555555555556</v>
+        <v>7.990277777777778</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3708,37 +4004,37 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>U53036315</t>
+          <t>U10837840</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>100.69</t>
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>75.03</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>99.33</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>88.89</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5419043</v>
+        <v>5430323</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3751,13 +4047,13 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45902.77259259259</v>
+        <v>45986.90302083334</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>1.735</v>
+        <v>3.960277777777778</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3771,37 +4067,37 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>U10837840</t>
+          <t>U68013422</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>97.37</t>
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>69.58</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>96.12</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>83.09</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5430323</v>
+        <v>5416135</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3814,13 +4110,13 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45902.77527777778</v>
+        <v>45988.86128472222</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6716666666666666</v>
+        <v>6.290833333333333</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3834,29 +4130,37 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>U68013422</t>
+          <t>U74716014</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>97.97</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr"/>
+          <t>69.86</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>83.72</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5416135</v>
+        <v>5498651</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3869,13 +4173,13 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45902.8590625</v>
+        <v>45986.03103009259</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>1.48</v>
+        <v>5.159444444444444</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3884,34 +4188,42 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>U74716014</t>
+          <t>U34982739</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>42.23</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr"/>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>50.51</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>44.97</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5498651</v>
+        <v>5251201</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3924,13 +4236,13 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45902.15936342593</v>
+        <v>45987.09491898148</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4166666666666667</v>
+        <v>7.381666666666667</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3939,34 +4251,42 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>U34982739</t>
+          <t>U04874145</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>64.46</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr"/>
+          <t>45.12</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>69.50</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>59.07</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5251201</v>
+        <v>5386309</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3979,13 +4299,13 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45902.7583912037</v>
+        <v>45987.96684027778</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3255555555555555</v>
+        <v>4.181388888888889</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3994,34 +4314,42 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>U04874145</t>
+          <t>U46644441</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr"/>
+          <t>71.26</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>85.47</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5386309</v>
+        <v>5452351</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4034,13 +4362,13 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45898.18586805555</v>
+        <v>45985.81212962963</v>
       </c>
       <c r="E63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2666666666666667</v>
+        <v>5.84</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -4049,34 +4377,42 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>U46644441</t>
+          <t>U00510943</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr"/>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>77.50</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5452351</v>
+        <v>5454501</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4089,13 +4425,13 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45901.78148148148</v>
+        <v>45946.78368055556</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F64" t="n">
-        <v>1.013888888888889</v>
+        <v>5.049166666666666</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -4104,34 +4440,42 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>U00510943</t>
+          <t>U24783167</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr"/>
+          <t>38.02</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>57.97</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>46.02</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5454501</v>
+        <v>5416355</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4144,13 +4488,13 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45902.82483796297</v>
+        <v>45985.67126157408</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
-        <v>1.331666666666667</v>
+        <v>8.076388888888889</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -4159,34 +4503,42 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>U24783167</t>
+          <t>U02366407</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>95.87</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr"/>
+          <t>68.94</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>96.55</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>83.94</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5416355</v>
+        <v>5481473</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4199,13 +4551,13 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45902.49850694444</v>
+        <v>45988.91159722222</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>2.464722222222222</v>
+        <v>11.88916666666667</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -4214,34 +4566,42 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>U02366407</t>
+          <t>U95378364</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr"/>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>87.47</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5481473</v>
+        <v>5322891</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4254,13 +4614,13 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45901.92627314815</v>
+        <v>45986.96460648148</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>1.591666666666667</v>
+        <v>8.838055555555556</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -4274,37 +4634,37 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>U95378364</t>
+          <t>U29846102</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>29.11</t>
         </is>
       </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>16.73</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>33.23</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>24.73</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5322891</v>
+        <v>5419233</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4317,13 +4677,13 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45898.92820601852</v>
+        <v>45986.33525462963</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>2.009444444444445</v>
+        <v>8.66</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -4332,34 +4692,42 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>U29846102</t>
+          <t>U79010359</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr"/>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>82.76</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5419233</v>
+        <v>5273095</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4372,13 +4740,13 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45901.7715625</v>
+        <v>45986.03944444445</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>1.073611111111111</v>
+        <v>6.254444444444444</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4387,42 +4755,42 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>U79010359</t>
+          <t>U33590089</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>88.00</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>66.26</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>89.76</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>81.08</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5273095</v>
+        <v>5424367</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4435,13 +4803,13 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45902.86768518519</v>
+        <v>45986.97615740741</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9047222222222222</v>
+        <v>6.857777777777778</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4450,34 +4818,42 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>U33590089</t>
+          <t>U65992404</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>97.44</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>88.53</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5424367</v>
+        <v>5442027</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4490,13 +4866,13 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45901.83378472222</v>
+        <v>45986.78503472222</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>1.876944444444445</v>
+        <v>8.753055555555555</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4510,37 +4886,37 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>U65992404</t>
+          <t>U56939346</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>98.43</t>
         </is>
       </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>74.29</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>98.31</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>88.94</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5442027</v>
+        <v>5460841</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4553,13 +4929,13 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45901.96032407408</v>
+        <v>45986.85111111111</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>2.070555555555555</v>
+        <v>7.756944444444445</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4568,34 +4944,42 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>U56939346</t>
+          <t>U47526245</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr"/>
+          <t>57.96</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>72.26</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5460841</v>
+        <v>5461989</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4608,13 +4992,13 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45902.69871527778</v>
+        <v>45985.05181712963</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2811111111111111</v>
+        <v>5.808611111111111</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4623,34 +5007,42 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>U47526245</t>
+          <t>U17764109</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr"/>
+          <t>73.45</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>88.45</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5461989</v>
+        <v>5461253</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4663,13 +5055,13 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45902.56196759259</v>
+        <v>45985.60765046296</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>1.983888888888889</v>
+        <v>2.1125</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4678,42 +5070,42 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>U17764109</t>
+          <t>U23834065</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>59.18</t>
         </is>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>41.70</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>58.18</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>49.70</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5461253</v>
+        <v>5464597</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4726,13 +5118,13 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45902.09996527778</v>
+        <v>45985.15528935185</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
-        <v>1.101111111111111</v>
+        <v>6.888333333333334</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4746,29 +5138,37 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>U23834065</t>
+          <t>U88574850</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr"/>
+          <t>57.36</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>83.14</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>71.66</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5464597</v>
+        <v>5341087</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4781,13 +5181,13 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45894.68399305556</v>
+        <v>45986.56359953704</v>
       </c>
       <c r="E76" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6416666666666667</v>
+        <v>5.538611111111111</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4801,29 +5201,37 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>U88574850</t>
+          <t>U47072102</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr"/>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>79.81</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>5341087</v>
+        <v>5459279</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4836,13 +5244,13 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45902.68570601852</v>
+        <v>45986.91815972222</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1877777777777778</v>
+        <v>14.59277777777778</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4851,34 +5259,42 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>U47072102</t>
+          <t>U90586803</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>100.66</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr"/>
+          <t>75.01</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>100.17</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>89.66</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>5459279</v>
+        <v>5428823</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4891,13 +5307,13 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45902.63832175926</v>
+        <v>45986.74424768519</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>2.891944444444444</v>
+        <v>3.631944444444445</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4906,42 +5322,42 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>U90586803</t>
+          <t>U73179450</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>25.75</t>
         </is>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>15.70</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>30.45</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5428823</v>
+        <v>5475907</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -4954,13 +5370,13 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45902.16060185185</v>
+        <v>45987.87307870371</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>1.835833333333333</v>
+        <v>3.855555555555556</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4969,34 +5385,42 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>U73179450</t>
+          <t>U42982462</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>96.71</t>
+        </is>
+      </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr"/>
+          <t>72.97</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>97.25</t>
+        </is>
+      </c>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>87.97</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>5475907</v>
+        <v>5490859</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -5009,13 +5433,13 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45902.77246527778</v>
+        <v>45988.90023148148</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9491666666666667</v>
+        <v>5.755277777777778</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -5029,37 +5453,37 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>U42982462</t>
+          <t>U67418010</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>79.89</t>
         </is>
       </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>56.63</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>83.17</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>71.63</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5490859</v>
+        <v>5439173</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5072,13 +5496,13 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45902.82775462963</v>
+        <v>45987.56131944444</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.47</v>
+        <v>7.678333333333334</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -5087,34 +5511,42 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>U67418010</t>
+          <t>U50236681</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr"/>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>85.16</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5439173</v>
+        <v>5286107</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5127,13 +5559,13 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45902.77003472222</v>
+        <v>45985.57460648148</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8677777777777778</v>
+        <v>4.694444444444445</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -5142,34 +5574,42 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>U50236681</t>
+          <t>U93475984</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr"/>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>89.84</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>5286107</v>
+        <v>5476715</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5182,13 +5622,13 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45902.81008101852</v>
+        <v>45987.18004629629</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1372222222222222</v>
+        <v>8.707777777777778</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -5197,34 +5637,42 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>U93475984</t>
+          <t>U13367971</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr"/>
+          <t>66.30</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>80.60</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5476715</v>
+        <v>5493333</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5237,13 +5685,13 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45902.75902777778</v>
+        <v>45987.66052083333</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08833333333333333</v>
+        <v>5.333055555555555</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -5252,34 +5700,42 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>U13367971</t>
+          <t>U73150518</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>44.39</t>
+        </is>
+      </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr"/>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>52.68</t>
+        </is>
+      </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>41.44</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>5493333</v>
+        <v>5507701</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5292,13 +5748,13 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45902.68606481481</v>
+        <v>45973.69900462963</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3863888888888889</v>
+        <v>1.745833333333333</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -5307,34 +5763,42 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>U73150518</t>
+          <t>U30956026</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>55.56</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr"/>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>54.17</t>
+        </is>
+      </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>5507701</v>
+        <v>5459655</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -5347,13 +5811,13 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45900.08230324074</v>
+        <v>45986.04777777778</v>
       </c>
       <c r="E86" t="n">
         <v>2</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5188888888888888</v>
+        <v>6.073333333333333</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -5362,34 +5826,42 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>U30956026</t>
+          <t>U30255695</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr"/>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>75.83</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>5459655</v>
+        <v>5434589</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -5402,13 +5874,13 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45902.7944212963</v>
+        <v>45985.10597222222</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
-        <v>1.503888888888889</v>
+        <v>10.65527777777778</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -5417,34 +5889,42 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>U30255695</t>
+          <t>U49876139</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr"/>
+          <t>70.65</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>85.30</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>5434589</v>
+        <v>5459977</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -5457,13 +5937,13 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45902.71174768519</v>
+        <v>45986.92472222223</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>2.682777777777778</v>
+        <v>5.773888888888889</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -5472,42 +5952,42 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>U49876139</t>
+          <t>U99038171</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>61.49</t>
         </is>
       </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>42.46</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>67.01</t>
         </is>
       </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>56.76</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5459977</v>
+        <v>5427997</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -5520,13 +6000,13 @@
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>45902.67280092592</v>
+        <v>45984.71475694444</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>0.03388888888888889</v>
+        <v>11.38277777777778</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -5535,34 +6015,42 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>U99038171</t>
+          <t>U27185851</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr"/>
+          <t>72.80</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>87.10</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5427997</v>
+        <v>5496415</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -5575,13 +6063,13 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45902.70989583333</v>
+        <v>45986.68981481482</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
-        <v>0.7691666666666667</v>
+        <v>6.637777777777778</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -5590,42 +6078,42 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>U27185851</t>
+          <t>U07332215</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>67.86</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>82.51</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5496415</v>
+        <v>5466777</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -5638,13 +6126,13 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45902.10020833334</v>
+        <v>45985.1153125</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
-        <v>0.6388888888888888</v>
+        <v>6.681388888888889</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -5653,34 +6141,42 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>U07332215</t>
+          <t>U86289534</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr"/>
+          <t>70.77</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>85.77</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>5466777</v>
+        <v>5489549</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -5693,13 +6189,13 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45900.99118055555</v>
+        <v>45946.6875</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="F92" t="n">
-        <v>0.6608333333333334</v>
+        <v>1.1975</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5708,34 +6204,42 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>U86289534</t>
+          <t>U78716290</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>14.36</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr"/>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>15.83</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>5489549</v>
+        <v>5442347</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -5748,13 +6252,13 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45898.89505787037</v>
+        <v>45987.96971064815</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1491666666666667</v>
+        <v>6.856944444444444</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -5763,34 +6267,42 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>U78716290</t>
+          <t>U96298700</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr"/>
+          <t>66.85</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>81.67</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>5442347</v>
+        <v>5452209</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -5803,13 +6315,13 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45902.66008101852</v>
+        <v>45985.12290509259</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
-        <v>1.2875</v>
+        <v>7.378055555555555</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -5818,34 +6330,42 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>U96298700</t>
+          <t>U72570024</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr"/>
+          <t>68.80</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>83.45</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5452209</v>
+        <v>5465773</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -5858,13 +6378,13 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45902.60462962963</v>
+        <v>45985.61092592592</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7577777777777778</v>
+        <v>4.518055555555556</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -5873,42 +6393,42 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>U72570024</t>
+          <t>U21348097</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>92.72</t>
         </is>
       </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>66.20</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>93.53</t>
         </is>
       </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>80.85</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>5465773</v>
+        <v>5511129</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -5921,13 +6441,13 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45898.65673611111</v>
+        <v>45986.96119212963</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9172222222222223</v>
+        <v>4.781944444444444</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -5936,34 +6456,42 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>U21348097</t>
+          <t>U33608722</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr"/>
+          <t>66.10</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>80.40</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5511129</v>
+        <v>5471805</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -5976,13 +6504,13 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45902.16450231482</v>
+        <v>45986.65314814815</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
-        <v>1.116111111111111</v>
+        <v>6.038888888888889</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5991,34 +6519,42 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>U33608722</t>
+          <t>U54030146</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr"/>
+          <t>71.90</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>85.15</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5471805</v>
+        <v>5314287</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -6031,13 +6567,13 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45902.74256944445</v>
+        <v>45985.17836805555</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
-        <v>2.144722222222222</v>
+        <v>4.491666666666666</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -6046,34 +6582,42 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>U54030146</t>
+          <t>U82647592</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr"/>
+          <t>57.00</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>68.85</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5314287</v>
+        <v>5435075</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -6086,13 +6630,13 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45902.16439814815</v>
+        <v>45987.12364583334</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09138888888888889</v>
+        <v>2.826944444444444</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -6106,29 +6650,37 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>U82647592</t>
+          <t>U78448640</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr"/>
+          <t>68.42</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>83.07</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5435075</v>
+        <v>5541923</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -6141,13 +6693,13 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45896.70914351852</v>
+        <v>45984.62641203704</v>
       </c>
       <c r="E100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5563888888888889</v>
+        <v>4.880277777777778</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -6156,34 +6708,42 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>U78448640</t>
+          <t>U98676823</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr"/>
+          <t>71.93</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>86.23</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>5541923</v>
+        <v>5439639</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -6196,13 +6756,13 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45901.10517361111</v>
+        <v>45985.78512731481</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8405555555555555</v>
+        <v>6.822222222222222</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -6211,42 +6771,42 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>U98676823</t>
+          <t>U76283037</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>97.17</t>
         </is>
       </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>70.55</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>97.44</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>85.38</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>5439639</v>
+        <v>5030119</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -6259,13 +6819,13 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45898.86756944445</v>
+        <v>45986.63054398148</v>
       </c>
       <c r="E102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F102" t="n">
-        <v>1.515</v>
+        <v>3.736944444444445</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -6279,29 +6839,37 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>U76283037</t>
+          <t>U22188131</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>65.62</t>
+        </is>
+      </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr"/>
+          <t>46.40</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>60.88</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>5030119</v>
+        <v>5459427</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -6314,13 +6882,13 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45901.82263888889</v>
+        <v>45988.78395833333</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8525</v>
+        <v>12.05305555555556</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -6334,37 +6902,37 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>U22188131</t>
+          <t>U31376769</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>77.50</t>
         </is>
       </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>54.48</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>81.17</t>
         </is>
       </c>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>69.48</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>5459427</v>
+        <v>5434459</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -6377,13 +6945,13 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45902.65936342593</v>
+        <v>45988.72291666667</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>1.828888888888889</v>
+        <v>5.639166666666667</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -6397,29 +6965,37 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>U31376769</t>
+          <t>U42175937</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr"/>
+          <t>66.50</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>81.15</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>5434459</v>
+        <v>5454579</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -6432,13 +7008,13 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45902.86596064815</v>
+        <v>45984.86060185185</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F105" t="n">
-        <v>1.149166666666667</v>
+        <v>3.285</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -6452,29 +7028,37 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>U42175937</t>
+          <t>U68093053</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr"/>
+          <t>61.61</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>75.56</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>5454579</v>
+        <v>5484291</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -6487,13 +7071,13 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45896.57486111111</v>
+        <v>45987.70019675926</v>
       </c>
       <c r="E106" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.6486111111111111</v>
+        <v>9.875</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -6502,34 +7086,42 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>U68093053</t>
+          <t>U17371444</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr"/>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>88.74</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>5484291</v>
+        <v>5463705</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -6542,13 +7134,13 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45902.10321759259</v>
+        <v>45988.08152777778</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>2.701666666666667</v>
+        <v>9.505555555555556</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -6557,42 +7149,42 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>U17371444</t>
+          <t>U11294082</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>98.52</t>
         </is>
       </c>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>70.42</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>97.98</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>84.72</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>5463705</v>
+        <v>5435735</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -6605,13 +7197,13 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45900.10363425926</v>
+        <v>45986.23474537037</v>
       </c>
       <c r="E108" t="n">
         <v>2</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5486111111111112</v>
+        <v>9.386666666666667</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -6620,34 +7212,42 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>U11294082</t>
+          <t>U85138301</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr"/>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>80.01</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>5435735</v>
+        <v>5470289</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -6660,13 +7260,13 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45902.74454861111</v>
+        <v>45988.75076388889</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>1.054444444444445</v>
+        <v>5.923333333333333</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -6675,34 +7275,42 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>U85138301</t>
+          <t>U19698351</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr"/>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>84.94</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5470289</v>
+        <v>5458449</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -6715,13 +7323,13 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45897.92762731481</v>
+        <v>45988.03309027778</v>
       </c>
       <c r="E110" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1119444444444444</v>
+        <v>8.933055555555555</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -6730,34 +7338,42 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>U19698351</t>
+          <t>U58846736</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr"/>
+          <t>66.70</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>81.70</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>5458449</v>
+        <v>5465025</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -6770,13 +7386,13 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45902.10033564815</v>
+        <v>45988.61383101852</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>1.890555555555556</v>
+        <v>9.391944444444444</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -6785,34 +7401,42 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>U58846736</t>
+          <t>U86332172</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr"/>
+          <t>64.48</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>78.43</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>5465025</v>
+        <v>5465015</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -6825,13 +7449,13 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45902.82304398148</v>
+        <v>45987.90155092593</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>1.635277777777778</v>
+        <v>9.676666666666666</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -6840,34 +7464,42 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>U86332172</t>
+          <t>U64752786</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr"/>
+          <t>73.18</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>87.13</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>5465015</v>
+        <v>5341665</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -6880,13 +7512,13 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45901.96803240741</v>
+        <v>45985.8941087963</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F113" t="n">
-        <v>1.355</v>
+        <v>6.642777777777778</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -6900,37 +7532,37 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>U64752786</t>
+          <t>U40003411</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>48.51</t>
         </is>
       </c>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>33.91</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>49.33</t>
         </is>
       </c>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>41.91</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5341665</v>
+        <v>5481143</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -6943,13 +7575,13 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45897.12616898148</v>
+        <v>45987.67001157408</v>
       </c>
       <c r="E114" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.7861111111111111</v>
+        <v>4.269444444444445</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -6963,29 +7595,37 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>U40003411</t>
+          <t>U20838900</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>97.24</t>
+        </is>
+      </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr"/>
+          <t>72.39</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>87.39</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5481143</v>
+        <v>5340133</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -6998,13 +7638,13 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45902.80984953704</v>
+        <v>45988.69849537037</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8638888888888889</v>
+        <v>4.293055555555555</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -7013,42 +7653,42 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>U20838900</t>
+          <t>U90231444</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>78.37</t>
         </is>
       </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>55.71</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>74.11</t>
         </is>
       </c>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>63.71</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>5340133</v>
+        <v>5511553</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -7061,13 +7701,13 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45902.68185185185</v>
+        <v>45988.94274305556</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.03333333333333333</v>
+        <v>4.625833333333333</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -7076,34 +7716,42 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>U90231444</t>
+          <t>U60474125</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>72.17</t>
+        </is>
+      </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr"/>
+          <t>51.00</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>65.30</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>5511553</v>
+        <v>5470655</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -7116,13 +7764,13 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45902.6408912037</v>
+        <v>45985.18049768519</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1011111111111111</v>
+        <v>5.253055555555555</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -7131,34 +7779,42 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>U60474125</t>
+          <t>U52193710</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr"/>
+          <t>64.29</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>79.29</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5470655</v>
+        <v>5448549</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -7171,13 +7827,13 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45896.61770833333</v>
+        <v>45986.92050925926</v>
       </c>
       <c r="E118" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6661111111111111</v>
+        <v>10.7</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -7191,29 +7847,37 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>U52193710</t>
+          <t>U94426603</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr"/>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5448549</v>
+        <v>5479853</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -7226,13 +7890,13 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45902.60314814815</v>
+        <v>45988.53159722222</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.3380555555555556</v>
+        <v>6.191111111111111</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -7246,29 +7910,37 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>U94426603</t>
+          <t>U31973193</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr"/>
+          <t>58.47</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>72.77</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>5479853</v>
+        <v>5489227</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -7281,13 +7953,13 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45898.84128472222</v>
+        <v>45985.03362268519</v>
       </c>
       <c r="E120" t="n">
         <v>3</v>
       </c>
       <c r="F120" t="n">
-        <v>0.05083333333333333</v>
+        <v>2.575277777777778</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -7301,29 +7973,37 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>U31973193</t>
+          <t>U89619572</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr"/>
+          <t>66.95</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>81.95</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>5489227</v>
+        <v>5456909</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -7336,13 +8016,13 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45902.6899537037</v>
+        <v>45984.89304398148</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F121" t="n">
-        <v>0.07611111111111112</v>
+        <v>5.935833333333333</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -7351,42 +8031,42 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>U89619572</t>
+          <t>U85322481</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>56.35</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>80.80</t>
         </is>
       </c>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>69.60</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>5456909</v>
+        <v>5476191</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -7399,13 +8079,13 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45902.04788194445</v>
+        <v>45986.86354166667</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>3.650833333333333</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -7419,29 +8099,37 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>U85322481</t>
+          <t>U45397704</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>72.93</t>
+        </is>
+      </c>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N122" t="inlineStr"/>
+          <t>50.51</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>69.59</t>
+        </is>
+      </c>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>58.51</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>5476191</v>
+        <v>5442749</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -7454,13 +8142,13 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45902.78658564815</v>
+        <v>45986.99918981481</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.4361111111111111</v>
+        <v>6.699444444444445</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -7474,29 +8162,37 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>U45397704</t>
+          <t>U36622996</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>100.14</t>
+        </is>
+      </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr"/>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>100.12</t>
+        </is>
+      </c>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>89.61</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5442749</v>
+        <v>5457173</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -7509,13 +8205,13 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45902.1669675926</v>
+        <v>45988.09291666667</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.4088888888888889</v>
+        <v>2.9075</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -7524,42 +8220,42 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>U36622996</t>
+          <t>U42565590</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>52.78</t>
         </is>
       </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>37.03</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>52.87</t>
         </is>
       </c>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>45.03</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>5457173</v>
+        <v>5268841</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -7572,13 +8268,13 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45902.84858796297</v>
+        <v>45986.73413194445</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1158333333333333</v>
+        <v>4.023611111111111</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -7587,34 +8283,42 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>U42565590</t>
+          <t>U77454933</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr"/>
+          <t>66.99</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>81.29</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>5268841</v>
+        <v>5452375</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -7627,13 +8331,13 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45902.68564814814</v>
+        <v>45986.98571759259</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.2847222222222222</v>
+        <v>3.546944444444444</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -7642,34 +8346,42 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>U77454933</t>
+          <t>U14000556</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr"/>
+          <t>54.22</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>69.04</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>5452375</v>
+        <v>5464911</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -7682,13 +8394,13 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45902.64582175926</v>
+        <v>45986.14337962963</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F127" t="n">
-        <v>0.03555555555555556</v>
+        <v>8.486666666666666</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -7697,34 +8409,42 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>U14000556</t>
+          <t>U12913231</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr"/>
+          <t>67.89</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>95.70</t>
+        </is>
+      </c>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>82.72</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>5464911</v>
+        <v>5506325</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -7737,13 +8457,13 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45901.13635416667</v>
+        <v>45985.74232638889</v>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F128" t="n">
-        <v>1.382222222222222</v>
+        <v>6.243333333333333</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -7752,34 +8472,42 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>U12913231</t>
+          <t>U81741143</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr"/>
+          <t>66.91</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>81.63</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>5506325</v>
+        <v>5463315</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -7792,13 +8520,13 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45902.09649305556</v>
+        <v>45978.83719907407</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F129" t="n">
-        <v>1.873333333333333</v>
+        <v>3.968055555555555</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -7807,34 +8535,42 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>U81741143</t>
+          <t>U52281063</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>77.41</t>
+        </is>
+      </c>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr"/>
+          <t>57.29</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>71.59</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>5496113</v>
+        <v>5431283</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -7847,13 +8583,13 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45901.02180555555</v>
+        <v>45988.01744212963</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5927777777777777</v>
+        <v>9.004444444444445</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -7867,29 +8603,37 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>U78143952</t>
+          <t>U48655981</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr"/>
+          <t>70.82</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>85.82</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>5463315</v>
+        <v>5430077</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -7902,13 +8646,13 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45897.64612268518</v>
+        <v>45988.06123842593</v>
       </c>
       <c r="E131" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2525</v>
+        <v>5.475</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -7917,34 +8661,42 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>U52281063</t>
+          <t>U30310669</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr"/>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>77.76</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>5431283</v>
+        <v>5427095</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -7957,13 +8709,13 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45902.75847222222</v>
+        <v>45983.83364583334</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F132" t="n">
-        <v>2.171388888888889</v>
+        <v>9.3925</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -7977,37 +8729,37 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>U48655981</t>
+          <t>U61494060</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>99.81</t>
         </is>
       </c>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>74.35</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>99.84</t>
         </is>
       </c>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>89.35</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>5430077</v>
+        <v>5426905</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -8020,13 +8772,13 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45902.82673611111</v>
+        <v>45984.95826388889</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F133" t="n">
-        <v>1.756388888888889</v>
+        <v>5.845</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -8035,34 +8787,42 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>U30310669</t>
+          <t>U31458514</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr"/>
+          <t>73.85</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>88.15</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5427095</v>
+        <v>5447521</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -8075,13 +8835,13 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45902.85626157407</v>
+        <v>45987.67038194444</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>1.485</v>
+        <v>12.45333333333333</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -8090,34 +8850,42 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>U61494060</t>
+          <t>U17720345</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr"/>
+          <t>57.60</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>69.80</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>5426905</v>
+        <v>5426727</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -8130,13 +8898,13 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45901.7890162037</v>
+        <v>45986.82655092593</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9005555555555556</v>
+        <v>4.274722222222223</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -8145,42 +8913,42 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>U31458514</t>
+          <t>U62930365</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>74.45</t>
         </is>
       </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>52.85</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>78.81</t>
         </is>
       </c>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>67.85</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>5447521</v>
+        <v>5436769</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -8193,13 +8961,13 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45898.0940162037</v>
+        <v>45985.85923611111</v>
       </c>
       <c r="E136" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3625</v>
+        <v>8.040833333333333</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -8208,34 +8976,42 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>U17720345</t>
+          <t>U79272113</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr"/>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>82.25</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>5426727</v>
+        <v>5456453</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -8248,13 +9024,13 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45902.71768518518</v>
+        <v>45986.83997685185</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>1.575833333333333</v>
+        <v>7.125833333333333</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -8263,42 +9039,42 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>U62930365</t>
+          <t>U71526299</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>95.45</t>
         </is>
       </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>71.69</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>96.19</t>
         </is>
       </c>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>86.69</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>5436769</v>
+        <v>5448953</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -8311,13 +9087,13 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45902.76302083334</v>
+        <v>45986.06585648148</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9519444444444445</v>
+        <v>6.960833333333333</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -8326,34 +9102,42 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>U79272113</t>
+          <t>U97612224</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr"/>
+          <t>73.41</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>88.41</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>5456453</v>
+        <v>5430979</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -8366,13 +9150,13 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45902.09998842593</v>
+        <v>45986.99555555556</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>1.177777777777778</v>
+        <v>7.606666666666666</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -8381,42 +9165,42 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>U71526299</t>
+          <t>U01622693</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>94.85</t>
         </is>
       </c>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>68.15</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>95.31</t>
         </is>
       </c>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>82.80</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5448953</v>
+        <v>5460281</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -8429,13 +9213,13 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45902.8075462963</v>
+        <v>45986.93146990741</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>1.6825</v>
+        <v>4.656944444444444</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -8444,34 +9228,42 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>U97612224</t>
+          <t>U67460270</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>64.89</t>
+        </is>
+      </c>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr"/>
+          <t>45.08</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>69.47</t>
+        </is>
+      </c>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>59.03</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>5430979</v>
+        <v>5507231</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -8484,13 +9276,13 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45902.69226851852</v>
+        <v>45985.61328703703</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9675</v>
+        <v>7.244166666666667</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -8499,34 +9291,42 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>U01622693</t>
+          <t>U89276695</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>100.19</t>
+        </is>
+      </c>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr"/>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>100.16</t>
+        </is>
+      </c>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>89.64</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5460281</v>
+        <v>5462065</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -8539,13 +9339,13 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45902.70752314815</v>
+        <v>45987.81847222222</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.6875</v>
+        <v>2.848333333333333</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -8554,42 +9354,42 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>U67460270</t>
+          <t>U88946090</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>71.26</t>
         </is>
       </c>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>47.70</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>68.34</t>
         </is>
       </c>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>55.70</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>5507231</v>
+        <v>5461079</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -8602,13 +9402,13 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45902.68299768519</v>
+        <v>45984.97665509259</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F143" t="n">
-        <v>1.314166666666667</v>
+        <v>1.809722222222222</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -8617,42 +9417,42 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.003F25</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>U89276695</t>
+          <t>U91975196</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>30.27</t>
         </is>
       </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>17.26</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>34.20</t>
         </is>
       </c>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>25.26</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>5462065</v>
+        <v>5480589</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -8665,13 +9465,13 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45902.68648148148</v>
+        <v>45987.14069444445</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.6477777777777778</v>
+        <v>9.885</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -8680,34 +9480,42 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>U88946090</t>
+          <t>U92346151</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr"/>
+          <t>73.46</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>88.11</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>5461079</v>
+        <v>5276443</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -8720,13 +9528,13 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45897.66376157408</v>
+        <v>45986.56337962963</v>
       </c>
       <c r="E145" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>8.575277777777778</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -8735,34 +9543,42 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>U91975196</t>
+          <t>U13643605</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>100.10</t>
+        </is>
+      </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr"/>
+          <t>75.57</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>90.22</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>5480589</v>
+        <v>5434537</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -8775,13 +9591,13 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45902.84256944444</v>
+        <v>45988.05517361111</v>
       </c>
       <c r="E146" t="n">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>2.0075</v>
+        <v>4.959166666666667</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -8795,37 +9611,37 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>U92346151</t>
+          <t>U64776721</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>91.58</t>
         </is>
       </c>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>65.35</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>92.02</t>
         </is>
       </c>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>79.48</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>5276443</v>
+        <v>5441983</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -8838,13 +9654,13 @@
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45900.19594907408</v>
+        <v>45987.63752314815</v>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>1.443888888888889</v>
+        <v>5.640555555555555</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -8853,38 +9669,46 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>U13643605</t>
+          <t>U11265014</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr"/>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>80.93</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>5434537</v>
+        <v>5591249</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>StudentViewEnrollment</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -8893,14 +9717,14 @@
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45902.85645833334</v>
+        <v>45952.15980324074</v>
       </c>
       <c r="E148" t="n">
+        <v>36</v>
+      </c>
+      <c r="F148" t="n">
         <v>0</v>
       </c>
-      <c r="F148" t="n">
-        <v>0.3933333333333333</v>
-      </c>
       <c r="G148" t="inlineStr">
         <is>
           <t>CGS2100.001F25</t>
@@ -8908,38 +9732,42 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>U64776721</t>
-        </is>
-      </c>
+          <t>CGS2100.001F25</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N148" t="inlineStr"/>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>5441983</v>
+        <v>5591249</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>StudentViewEnrollment</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -8948,14 +9776,14 @@
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45902.60762731481</v>
+        <v>45952.15980324074</v>
       </c>
       <c r="E149" t="n">
+        <v>36</v>
+      </c>
+      <c r="F149" t="n">
         <v>0</v>
       </c>
-      <c r="F149" t="n">
-        <v>1.921944444444444</v>
-      </c>
       <c r="G149" t="inlineStr">
         <is>
           <t>CGS2100.001F25</t>
@@ -8963,54 +9791,58 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>U11265014</t>
-        </is>
-      </c>
+          <t>CGS2100.002F25</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr"/>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>4876881</v>
+        <v>5591249</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>StudentViewEnrollment</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45902.69417824074</v>
+        <v>45952.15980324074</v>
       </c>
       <c r="E150" t="n">
+        <v>36</v>
+      </c>
+      <c r="F150" t="n">
         <v>0</v>
       </c>
-      <c r="F150" t="n">
-        <v>0.3797222222222222</v>
-      </c>
       <c r="G150" t="inlineStr">
         <is>
           <t>CGS2100.001F25</t>
@@ -9018,26 +9850,38 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>U14884292</t>
-        </is>
-      </c>
+          <t>CGS2100.003F25</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
       <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
       <c r="Q150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>5106229</v>
+        <v>4876881</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -9050,13 +9894,13 @@
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45902.05503472222</v>
+        <v>45988.92984953704</v>
       </c>
       <c r="E151" t="n">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.05666666666666666</v>
+        <v>10.24916666666667</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -9070,7 +9914,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>U95564252</t>
+          <t>U14884292</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -9084,26 +9928,26 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>964585</v>
+        <v>5106229</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TeacherEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>TeacherEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>45902.86769675926</v>
+        <v>45984.66111111111</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F152" t="n">
-        <v>8.670277777777779</v>
+        <v>12.85805555555556</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -9112,12 +9956,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>CGS2100.002F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>U84383097</t>
+          <t>U95564252</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -9144,13 +9988,13 @@
         </is>
       </c>
       <c r="D153" s="2" t="n">
-        <v>45902.86769675926</v>
+        <v>45988.94805555556</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>8.670277777777779</v>
+        <v>18.86027777777778</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -9159,7 +10003,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>CGS2100.001F25</t>
+          <t>CGS2100.002F25</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -9191,13 +10035,13 @@
         </is>
       </c>
       <c r="D154" s="2" t="n">
-        <v>45902.86769675926</v>
+        <v>45988.94805555556</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>8.670277777777779</v>
+        <v>18.86027777777778</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -9206,7 +10050,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>CGS2100.003F25</t>
+          <t>CGS2100.001F25</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -9223,6 +10067,53 @@
       <c r="P154" t="inlineStr"/>
       <c r="Q154" t="inlineStr"/>
     </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>964585</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>TeacherEnrollment</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>TeacherEnrollment</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>45988.94805555556</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>18.86027777777778</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>CGS2100.001F25</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>CGS2100.003F25</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>U84383097</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
